--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="337">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -976,9 +976,6 @@
     <t>Communication.payload.extension.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
@@ -992,6 +989,9 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/communication-payload-type</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -1022,6 +1022,9 @@
     &lt;code value="CareRendered"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/feedback-payload</t>
   </si>
   <si>
     <t>string
@@ -1423,7 +1426,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="75.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.21484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.7890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="55.8359375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -5641,10 +5644,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5656,13 +5659,13 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5722,7 +5725,7 @@
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>133</v>
@@ -5849,14 +5852,14 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -5871,14 +5874,12 @@
         <v>128</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -5918,7 +5919,7 @@
         <v>289</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>73</v>
@@ -5948,12 +5949,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5979,13 +5980,13 @@
         <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5993,7 +5994,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>73</v>
@@ -6223,13 +6224,11 @@
         <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>73</v>
@@ -6406,7 +6405,7 @@
         <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>303</v>
@@ -6492,7 +6491,7 @@
         <v>274</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>73</v>
@@ -6713,10 +6712,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -6728,13 +6727,13 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6794,7 +6793,7 @@
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>133</v>
@@ -6921,14 +6920,14 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -6943,14 +6942,12 @@
         <v>128</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>73</v>
@@ -6990,7 +6987,7 @@
         <v>289</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>73</v>
@@ -7020,12 +7017,12 @@
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7051,13 +7048,13 @@
         <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7065,7 +7062,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>73</v>
@@ -7280,7 +7277,7 @@
         <v>73</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>73</v>
@@ -7295,13 +7292,11 @@
         <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>
@@ -7478,7 +7473,7 @@
         <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>303</v>
@@ -7564,7 +7559,7 @@
         <v>274</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>73</v>
@@ -7785,10 +7780,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>73</v>
@@ -7800,13 +7795,13 @@
         <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7866,7 +7861,7 @@
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>133</v>
@@ -7993,14 +7988,14 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8015,14 +8010,12 @@
         <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8062,7 +8055,7 @@
         <v>289</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
@@ -8092,12 +8085,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8123,13 +8116,13 @@
         <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8137,7 +8130,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>73</v>
@@ -8352,7 +8345,7 @@
         <v>73</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>73</v>
@@ -8367,13 +8360,11 @@
         <v>73</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>73</v>
@@ -8550,7 +8541,7 @@
         <v>73</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>303</v>
@@ -8636,7 +8627,7 @@
         <v>274</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>73</v>
@@ -8857,10 +8848,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>73</v>
@@ -8872,13 +8863,13 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8938,7 +8929,7 @@
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>133</v>
@@ -9065,14 +9056,14 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9087,14 +9078,12 @@
         <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>73</v>
@@ -9134,7 +9123,7 @@
         <v>289</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>73</v>
@@ -9164,12 +9153,12 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9195,13 +9184,13 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9209,7 +9198,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>73</v>
@@ -9424,7 +9413,7 @@
         <v>73</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>73</v>
@@ -9439,13 +9428,11 @@
         <v>73</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>73</v>
@@ -9622,7 +9609,7 @@
         <v>73</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>303</v>
@@ -9708,7 +9695,7 @@
         <v>274</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>73</v>
@@ -9929,10 +9916,10 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>73</v>
@@ -9944,13 +9931,13 @@
         <v>73</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10010,7 +9997,7 @@
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>133</v>
@@ -10137,14 +10124,14 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>73</v>
@@ -10159,14 +10146,12 @@
         <v>128</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -10206,7 +10191,7 @@
         <v>289</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>73</v>
@@ -10236,12 +10221,12 @@
         <v>73</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10267,13 +10252,13 @@
         <v>96</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10281,7 +10266,7 @@
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>73</v>
@@ -10496,7 +10481,7 @@
         <v>73</v>
       </c>
       <c r="R85" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>73</v>
@@ -10511,13 +10496,11 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10694,7 +10677,7 @@
         <v>73</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>303</v>
@@ -10777,7 +10760,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10800,13 +10783,13 @@
         <v>73</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10857,7 +10840,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -10872,7 +10855,7 @@
         <v>94</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication.xlsx
+++ b/StructureDefinition-openimis-communication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
